--- a/biology/Botanique/Rebutia/Rebutia.xlsx
+++ b/biology/Botanique/Rebutia/Rebutia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rebutia est un genre de la famille des cactus composé de 41 espèces, originaires de Bolivie et Argentine. 
 En 1895, Karl Moritz Schumann a donné au genre le nom de Pierre Rebut (1827-1898), un pépiniériste français cactophile. 
@@ -517,8 +529,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Les genres suivants ont été fusionnés en Rebutia :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les genres suivants ont été fusionnés en Rebutia :
  Aylostera  Speg.
  Bridgesia  Backeb.
  Cylindrorebutia  Fric et Kreuz.
@@ -533,8 +550,7 @@
  Setirebutia  Fric et Kreuz.
  Spegazzinia  Backeb.
  Sulcorebutia  Backeb.
- Weingartia  Werderm.
-Liste d'espèces</t>
+ Weingartia  Werderm.</t>
         </is>
       </c>
     </row>
@@ -562,7 +578,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Rebutia minuscula
